--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\python\CliMoExt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20B9A1-45E7-4792-8C47-B19D863B3333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E8323-296E-4BD7-BBD7-DB7C785EB967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4361E948-B5AD-47AC-9807-30A953EAE174}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +102,6 @@
     <t>Floods</t>
   </si>
   <si>
-    <t>Erosion / Soil fertilty / Land degradation / Deforestation / Salinisation</t>
-  </si>
-  <si>
     <t>Self assessement / Perceived environment</t>
   </si>
   <si>
@@ -177,13 +175,22 @@
   </si>
   <si>
     <t>Soil Quality and Human Migration in Kenya and Uganda</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Erosion / Soil fertility / Land degradation / Deforestation / Salinisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +233,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +306,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -340,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,10 +419,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,10 +723,10 @@
   <dimension ref="A1:AM8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,58 +838,58 @@
         <v>20</v>
       </c>
       <c r="V1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="43.5" x14ac:dyDescent="0.35">
@@ -851,117 +897,117 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1</v>
-      </c>
-      <c r="J2" s="14">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>1</v>
-      </c>
-      <c r="O2" s="14">
-        <v>1</v>
-      </c>
-      <c r="P2" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>1</v>
-      </c>
-      <c r="R2" s="14">
-        <v>1</v>
-      </c>
-      <c r="S2" s="14">
-        <v>0</v>
-      </c>
-      <c r="T2" s="14">
-        <v>0</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14">
-        <v>1</v>
-      </c>
-      <c r="W2" s="14">
-        <v>1</v>
-      </c>
-      <c r="X2" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="16">
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>1</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>1</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="19">
+        <v>0</v>
+      </c>
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
+        <v>1</v>
+      </c>
+      <c r="W2" s="19">
+        <v>1</v>
+      </c>
+      <c r="X2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="20">
         <v>0</v>
       </c>
     </row>
@@ -970,117 +1016,117 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14">
-        <v>1</v>
-      </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>1</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>1</v>
-      </c>
-      <c r="R3" s="14">
-        <v>0</v>
-      </c>
-      <c r="S3" s="14">
-        <v>0</v>
-      </c>
-      <c r="T3" s="14">
-        <v>1</v>
-      </c>
-      <c r="U3" s="14">
-        <v>1</v>
-      </c>
-      <c r="V3" s="14">
-        <v>1</v>
-      </c>
-      <c r="W3" s="14">
-        <v>1</v>
-      </c>
-      <c r="X3" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="16">
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
+        <v>1</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="19">
+        <v>1</v>
+      </c>
+      <c r="U3" s="19">
+        <v>1</v>
+      </c>
+      <c r="V3" s="19">
+        <v>1</v>
+      </c>
+      <c r="W3" s="19">
+        <v>1</v>
+      </c>
+      <c r="X3" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1089,117 +1135,117 @@
         <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14">
-        <v>1</v>
-      </c>
-      <c r="P4" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1</v>
-      </c>
-      <c r="R4" s="14">
-        <v>1</v>
-      </c>
-      <c r="S4" s="14">
-        <v>0</v>
-      </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="16">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1</v>
+      </c>
+      <c r="R4" s="19">
+        <v>1</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1208,161 +1254,161 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>1</v>
-      </c>
-      <c r="O5" s="14">
-        <v>1</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
-        <v>1</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="16">
+      <c r="D5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1</v>
+      </c>
+      <c r="O5" s="19">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
+        <v>1</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
